--- a/database_old/Trace_Report_CANOLA MEAL.xlsx
+++ b/database_old/Trace_Report_CANOLA MEAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67191DEC-2FA8-448A-9CC6-CC25000BA550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2537E897-6170-4FA5-A47E-5CD270F238E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$4:$N$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$4:$O$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="96">
   <si>
     <t>Initial</t>
   </si>
@@ -68,31 +68,82 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>TRGX</t>
+  </si>
+  <si>
+    <t>CHURCHILL INDU</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Pulled from Cust</t>
+  </si>
+  <si>
+    <t>LOVELAND</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>WFRX</t>
+  </si>
+  <si>
+    <t>DENVER</t>
+  </si>
+  <si>
+    <t>Arrive In-Transit</t>
+  </si>
+  <si>
+    <t>HKCKDE</t>
+  </si>
+  <si>
+    <t>BNSF</t>
+  </si>
+  <si>
+    <t>CEFX</t>
+  </si>
+  <si>
+    <t>TILX</t>
+  </si>
+  <si>
+    <t>DILWORTH</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>YDIL30</t>
+  </si>
+  <si>
+    <t>AOKX</t>
+  </si>
+  <si>
+    <t>GREELEY</t>
+  </si>
+  <si>
+    <t>Junction Delivery</t>
+  </si>
+  <si>
+    <t>GWR</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>ADMX</t>
+  </si>
+  <si>
     <t>FURX</t>
   </si>
   <si>
-    <t>DENVER</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
-  </si>
-  <si>
-    <t>HKCKDE</t>
-  </si>
-  <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>BNSF</t>
-  </si>
-  <si>
-    <t>CEFX</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
+    <t>HOLCOMB</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Departure</t>
   </si>
   <si>
     <t>Placed Actual</t>
@@ -101,43 +152,58 @@
     <t>CRDX</t>
   </si>
   <si>
+    <t>AEX</t>
+  </si>
+  <si>
     <t>KANSAS CITY</t>
   </si>
   <si>
-    <t>KS</t>
-  </si>
-  <si>
     <t>HNTWKC</t>
   </si>
   <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>LA CYGNE</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>HTULKC</t>
-  </si>
-  <si>
-    <t>LONGMONT</t>
-  </si>
-  <si>
-    <t>HDENLA</t>
+    <t>LA SALLE</t>
+  </si>
+  <si>
+    <t>LDI601</t>
+  </si>
+  <si>
+    <t>LAUREL</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>HLAUDE</t>
+  </si>
+  <si>
+    <t>CBFX</t>
+  </si>
+  <si>
+    <t>LITTLETON</t>
   </si>
   <si>
     <t>Junction Received</t>
   </si>
   <si>
+    <t>NDYX</t>
+  </si>
+  <si>
+    <t>MEDILL</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>SMW</t>
+  </si>
+  <si>
     <t>NORTHTOWN</t>
   </si>
   <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>HGFDNT</t>
+    <t>HDILNT</t>
+  </si>
+  <si>
+    <t>NOYES</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -149,46 +215,115 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/17/2023 09:27:39 EDT, by WPJTOWN1.The search returned: 10 events.</t>
+    <t>Description unknown, completed 06/15/2023 05:51:09 EDT, by WPJTOWN1.The search returned: 33 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>FURX855167</t>
-  </si>
-  <si>
-    <t>CEFX360837</t>
-  </si>
-  <si>
-    <t>CRDX15033</t>
-  </si>
-  <si>
-    <t>CRDX10122</t>
-  </si>
-  <si>
-    <t>AEX9203</t>
-  </si>
-  <si>
-    <t>CRDX15088</t>
-  </si>
-  <si>
-    <t>FURX855172</t>
-  </si>
-  <si>
-    <t>AEX8619</t>
-  </si>
-  <si>
-    <t>CRDX15634</t>
-  </si>
-  <si>
-    <t>FURX855168</t>
-  </si>
-  <si>
-    <t>5 CO</t>
-  </si>
-  <si>
-    <t>2 On Hand</t>
+    <t>TRGX854465</t>
+  </si>
+  <si>
+    <t>WFRX454037</t>
+  </si>
+  <si>
+    <t>CEFX360825</t>
+  </si>
+  <si>
+    <t>TILX570277</t>
+  </si>
+  <si>
+    <t>AOKX854300</t>
+  </si>
+  <si>
+    <t>ADMX54089</t>
+  </si>
+  <si>
+    <t>TILX54177</t>
+  </si>
+  <si>
+    <t>ADMX7079</t>
+  </si>
+  <si>
+    <t>AOKX854156</t>
+  </si>
+  <si>
+    <t>FURX855161</t>
+  </si>
+  <si>
+    <t>TILX55566</t>
+  </si>
+  <si>
+    <t>CEFX360842</t>
+  </si>
+  <si>
+    <t>CRDX15011</t>
+  </si>
+  <si>
+    <t>ADMX63946</t>
+  </si>
+  <si>
+    <t>AEX9137</t>
+  </si>
+  <si>
+    <t>CRDX15622</t>
+  </si>
+  <si>
+    <t>FURX855954</t>
+  </si>
+  <si>
+    <t>TILX54219</t>
+  </si>
+  <si>
+    <t>TILX55662</t>
+  </si>
+  <si>
+    <t>WFRX454142</t>
+  </si>
+  <si>
+    <t>TRGX854637</t>
+  </si>
+  <si>
+    <t>CBFX490506</t>
+  </si>
+  <si>
+    <t>CBFX490552</t>
+  </si>
+  <si>
+    <t>TILX55148</t>
+  </si>
+  <si>
+    <t>TILX55449</t>
+  </si>
+  <si>
+    <t>TILX55811</t>
+  </si>
+  <si>
+    <t>FURX855169</t>
+  </si>
+  <si>
+    <t>NDYX841938</t>
+  </si>
+  <si>
+    <t>CEFX360827</t>
+  </si>
+  <si>
+    <t>SMW826975</t>
+  </si>
+  <si>
+    <t>FURX855156</t>
+  </si>
+  <si>
+    <t>FURX855176</t>
+  </si>
+  <si>
+    <t>FURX855178</t>
+  </si>
+  <si>
+    <t>18 CO</t>
+  </si>
+  <si>
+    <t>4 On Hand</t>
   </si>
 </sst>
 </file>
@@ -1044,17 +1179,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K5" sqref="K5:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -1066,22 +1201,22 @@
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1119,492 +1254,1564 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>360837</v>
+        <v>55566</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2">
-        <v>1334</v>
+        <v>1611</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2">
-        <v>283534</v>
+        <v>198400</v>
       </c>
       <c r="M5" s="2">
-        <v>68500</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>215034</v>
+        <v>198400</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>15033</v>
+        <v>360842</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
-        <v>1334</v>
+        <v>1608</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>283996</v>
+      </c>
+      <c r="M6" s="2">
+        <v>68100</v>
+      </c>
+      <c r="N6" s="2">
+        <v>215896</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15011</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1608</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>274319</v>
+      </c>
+      <c r="M7" s="2">
+        <v>69400</v>
+      </c>
+      <c r="N7" s="2">
+        <v>204919</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>63946</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
         <v>12</v>
       </c>
-      <c r="L6" s="2">
-        <v>278305</v>
-      </c>
-      <c r="M6" s="2">
-        <v>69400</v>
-      </c>
-      <c r="N6" s="2">
-        <v>208905</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>855167</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2233</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="3">
-        <v>230708</v>
-      </c>
-      <c r="M7" s="3">
-        <v>60300</v>
-      </c>
-      <c r="N7" s="3">
-        <v>170408</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>15088</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1453</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="3">
-        <v>280033</v>
-      </c>
-      <c r="M8" s="3">
-        <v>69600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>210433</v>
+      <c r="G8" s="2">
+        <v>1305</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>198950</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>198950</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
-        <v>855172</v>
+        <v>454037</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3">
-        <v>1048</v>
+        <v>303</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L9" s="3">
-        <v>237863</v>
+        <v>229086</v>
       </c>
       <c r="M9" s="3">
-        <v>60400</v>
+        <v>63700</v>
       </c>
       <c r="N9" s="3">
-        <v>177463</v>
+        <v>165386</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>8619</v>
+        <v>360825</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3">
-        <v>1001</v>
+        <v>303</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="3">
-        <v>266857</v>
+        <v>280078</v>
       </c>
       <c r="M10" s="3">
-        <v>71400</v>
+        <v>68300</v>
       </c>
       <c r="N10" s="3">
-        <v>195457</v>
+        <v>211778</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>855954</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1501</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="3">
+        <v>216100</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>216100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>54219</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1501</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="3">
+        <v>209950</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>209950</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>55662</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1501</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3">
+        <v>212300</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>212300</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>454142</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1501</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="3">
+        <v>219050</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>219050</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3">
+        <v>490506</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3">
+        <v>101</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3">
+        <v>224300</v>
+      </c>
+      <c r="M15" s="3">
+        <v>60900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>163400</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3">
+        <v>490552</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <v>101</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="3">
+        <v>222600</v>
+      </c>
+      <c r="M16" s="3">
+        <v>60700</v>
+      </c>
+      <c r="N16" s="3">
+        <v>161900</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>55148</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3">
+        <v>101</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="3">
+        <v>230400</v>
+      </c>
+      <c r="M17" s="3">
+        <v>63700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>166700</v>
+      </c>
+      <c r="O17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3">
+        <v>55449</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>101</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="3">
+        <v>226750</v>
+      </c>
+      <c r="M18" s="3">
+        <v>63700</v>
+      </c>
+      <c r="N18" s="3">
+        <v>163050</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3">
+        <v>55811</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <v>101</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3">
+        <v>225950</v>
+      </c>
+      <c r="M19" s="3">
+        <v>63800</v>
+      </c>
+      <c r="N19" s="3">
+        <v>162150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>854300</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1609</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="3">
+        <v>183100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>183100</v>
+      </c>
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3">
+        <v>54089</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1609</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="3">
+        <v>214900</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>214900</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>54177</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1609</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="3">
+        <v>207550</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>207550</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7079</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1609</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="3">
+        <v>201950</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>201950</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>854156</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1609</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="3">
+        <v>195150</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>195150</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
+        <v>855169</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1045</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
-        <v>15634</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="J25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="3">
+        <v>239535</v>
+      </c>
+      <c r="M25" s="3">
+        <v>60300</v>
+      </c>
+      <c r="N25" s="3">
+        <v>179235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3">
+        <v>841938</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1428</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="3">
+        <v>285905</v>
+      </c>
+      <c r="M26" s="3">
+        <v>61600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>224305</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>854465</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1001</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="3">
-        <v>277487</v>
-      </c>
-      <c r="M11" s="3">
-        <v>66800</v>
-      </c>
-      <c r="N11" s="3">
-        <v>210687</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>2230</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27">
+        <v>285676</v>
+      </c>
+      <c r="M27">
+        <v>63000</v>
+      </c>
+      <c r="N27">
+        <v>222676</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>9137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>756</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>265958</v>
+      </c>
+      <c r="M28">
+        <v>70600</v>
+      </c>
+      <c r="N28">
+        <v>195358</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>15622</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>756</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29">
+        <v>280567</v>
+      </c>
+      <c r="M29">
+        <v>67200</v>
+      </c>
+      <c r="N29">
+        <v>213367</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>855161</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>702</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>226450</v>
+      </c>
+      <c r="M30">
+        <v>60500</v>
+      </c>
+      <c r="N30">
+        <v>165950</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>570277</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>418</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31">
+        <v>236304</v>
+      </c>
+      <c r="M31">
+        <v>66400</v>
+      </c>
+      <c r="N31">
+        <v>169904</v>
+      </c>
+      <c r="O31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>826975</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>200</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32">
+        <v>208106</v>
+      </c>
+      <c r="M32">
+        <v>63400</v>
+      </c>
+      <c r="N32">
+        <v>144706</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>855156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>2311</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33">
+        <v>236536</v>
+      </c>
+      <c r="M33">
+        <v>60400</v>
+      </c>
+      <c r="N33">
+        <v>176136</v>
+      </c>
+      <c r="O33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>855176</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>110</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <v>239890</v>
+      </c>
+      <c r="M34">
+        <v>60500</v>
+      </c>
+      <c r="N34">
+        <v>179390</v>
+      </c>
+      <c r="O34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>855178</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>110</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35">
+        <v>237317</v>
+      </c>
+      <c r="M35">
+        <v>60300</v>
+      </c>
+      <c r="N35">
+        <v>177017</v>
+      </c>
+      <c r="O35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>360827</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>413</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>283496</v>
+      </c>
+      <c r="M36">
+        <v>68100</v>
+      </c>
+      <c r="N36">
+        <v>215396</v>
+      </c>
+      <c r="O36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>854637</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>1437</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>10122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>1809</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12">
-        <v>253156</v>
-      </c>
-      <c r="M12">
-        <v>71800</v>
-      </c>
-      <c r="N12">
-        <v>181356</v>
-      </c>
-      <c r="O12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>9203</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>602</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <v>278800</v>
-      </c>
-      <c r="M13">
-        <v>67900</v>
-      </c>
-      <c r="N13">
-        <v>210900</v>
-      </c>
-      <c r="O13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>855168</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>1541</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14">
-        <v>230136</v>
-      </c>
-      <c r="M14">
-        <v>60400</v>
-      </c>
-      <c r="N14">
-        <v>169736</v>
-      </c>
-      <c r="O14" t="s">
-        <v>48</v>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37">
+        <v>285434</v>
+      </c>
+      <c r="M37">
+        <v>62800</v>
+      </c>
+      <c r="N37">
+        <v>222634</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N14">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N14">
-      <sortCondition ref="D5:D14" customList="CO"/>
-      <sortCondition ref="H5:H14" customList="Placed Actual,Placed Construct"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O37">
+    <sortCondition ref="D5:D37" customList="CO"/>
+    <sortCondition ref="H5:H37" customList="Placed Actual,Placed Construct"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>